--- a/ch_12/autofit_example.xlsx
+++ b/ch_12/autofit_example.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,25 +421,76 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15.6" customWidth="1" min="1" max="1"/>
-    <col width="21.6" customWidth="1" min="2" max="2"/>
-    <col width="55.2" customWidth="1" min="3" max="3"/>
+    <col width="46.8" customWidth="1" min="1" max="1"/>
+    <col width="46.8" customWidth="1" min="2" max="2"/>
+    <col width="46.8" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Sample Text</t>
+          <t>Column A</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Some Longer Text</t>
+          <t>Column B</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Even Longer Text That Needs to Be Autofitted</t>
+          <t>Column C</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>This is the longest row of the column</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>This is the longest row of the column</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>This is the longest row of the column</t>
         </is>
       </c>
     </row>
